--- a/Circuits_images.xlsx
+++ b/Circuits_images.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52771\OneDrive - Benemérita Universidad Autónoma de Puebla\Análisis de Datos Primavera 2023\projects\f1\Formula-1-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://correobuap-my.sharepoint.com/personal/hessael_lopez_alumno_buap_mx/Documents/Análisis de Datos Primavera 2023/projects/f1/Formula-1-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE94F94F-B642-4AB7-A716-444B994A281D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{EE94F94F-B642-4AB7-A716-444B994A281D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A53E4731-C53B-40C9-BA22-094D32FC2550}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0327CF11-4956-44E9-8E4A-DD486ACC6DD2}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{0327CF11-4956-44E9-8E4A-DD486ACC6DD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,108 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
-    <t>https://es.wikipedia.org/wiki/Circuito_de_Albert_Park#/media/Archivo:Albert_Park_Circuit_2021.svg</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Circuito_de_las_Am%C3%A9ricas#/media/Archivo:Austin_circuit.svg</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Circuito_Internacional_de_Bar%C3%A9in#/media/Archivo:Bahrain_International_Circuit--Grand_Prix_Layout.svg</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Gran_Premio_de_Azerbaiy%C3%A1n#/media/Archivo:Baku_Formula_One_circuit_map.svg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Buddh_International_Circuit#/media/File:Buddh_Circuit_1.svg</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Circuito_de_Barcelona-Catalu%C3%B1a#/media/Archivo:Formula1_Circuit_Catalunya_2021.svg</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Hockenheimring#/media/Archivo:Hockenheim2012.svg</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Hungaroring#/media/Archivo:Hungaroring.svg</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Autodromo_Enzo_e_Dino_Ferrari#/media/Archivo:Imola_2009.svg</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Aut%C3%B3dromo_Jos%C3%A9_Carlos_Pace#/media/Archivo:Aut%C3%B3dromo_Jos%C3%A9_Carlos_Pace_(AKA_Interlagos)_track_map.svg</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Circuito_de_Estambul#/media/Archivo:Istanbul_park.svg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Jeddah_Corniche_Circuit#/media/File:Jeddah_Street_Circuit_2021.svg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Losail_International_Circuit#/media/File:Losail.svg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Marina_Bay_Street_Circuit#/media/File:Planned_2023_Marina_Bay_Street_Circuit_layout.png</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Gran_Premio_de_Miami#/media/Archivo:Hard_Rock_Stadium_Circuit_2022.svg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Circuit_de_Monaco#/media/File:Monte_Carlo_Formula_1_track_map.svg</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Autodromo_Nazionale_di_Monza#/media/Archivo:Monza_track_map.svg</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Aut%C3%B3dromo_Internacional_del_Mugello#/media/Archivo:Mugello_Racing_Circuit_track_map.svg</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/N%C3%BCrburgring#/media/Archivo:Circuit_N%C3%BCrburgring-2013.svg</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Aut%C3%B3dromo_Internacional_do_Algarve#/media/Archivo:Aut%C3%B3dromo_do_Algarve_moto.svg</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Red_Bull_Ring#/media/Archivo:Circuit_Red_Bull_Ring.svg</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Circuito_Paul_Ricard#/media/Archivo:Circuit_Paul_Ricard_2020_layout_map.svg</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Aut%C3%B3dromo_Hermanos_Rodr%C3%ADguez#/media/Archivo:Aut%C3%B3dromo_Hermanos_Rodr%C3%ADguez_2015.png</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Circuito_Internacional_de_Sepang#/media/Archivo:Sepang.svg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Shanghai_International_Circuit#/media/File:Shanghai_International_Racing_Circuit_track_map.svg</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Circuito_de_Silverstone#/media/Archivo:Circuit_Silverstone_2011.svg</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Aut%C3%B3dromo_de_Sochi#/media/Archivo:Circuit_Sochi.svg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Circuit_de_Spa-Francorchamps#/media/File:Spa-Francorchamps_of_Belgium.svg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Suzuka_International_Racing_Course#/media/File:Suzuka_circuit_map--2005.svg</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Circuito_urbano_de_Valencia#/media/Archivo:Circuit_Valensia_street.svg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Circuit_Gilles_Villeneuve#/media/File:%C3%8Ele_Notre-Dame_(Circuit_Gilles_Villeneuve).svg</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Circuito_Yas_Marina#/media/Archivo:Yas_Marina_Circuit.png</t>
-  </si>
-  <si>
-    <t>https://es.wikipedia.org/wiki/Circuito_Internacional_de_Corea#/media/Archivo:Korea_international_circuit_v2.svg</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Circuit_Zandvoort#/media/File:Zandvoort_Circuit.png</t>
-  </si>
-  <si>
     <t>albert_park</t>
   </si>
   <si>
@@ -246,6 +144,108 @@
   </si>
   <si>
     <t>image</t>
+  </si>
+  <si>
+    <t>https://motorsportmagazine.b-cdn.net/database/wp-content/uploads/sites/2/2020/12/Albert-Park-14.svg</t>
+  </si>
+  <si>
+    <t>https://media.formula1.com/image/upload/content/dam/fom-website/2018-redesign-assets/Circuit%20maps%2016x9/USA_Circuit.png</t>
+  </si>
+  <si>
+    <t>https://media.formula1.com/image/upload/content/dam/fom-website/2018-redesign-assets/Circuit%20maps%2016x9/Bahrain_Circuit.png</t>
+  </si>
+  <si>
+    <t>https://media.formula1.com/image/upload/content/dam/fom-website/2018-redesign-assets/Circuit%20maps%2016x9/Baku_Circuit.png</t>
+  </si>
+  <si>
+    <t>https://www.f1-fansite.com/wp-content/uploads/2012/07/Buddh-Circuit.jpg</t>
+  </si>
+  <si>
+    <t>https://media.formula1.com/image/upload/content/dam/fom-website/2018-redesign-assets/Circuit%20maps%2016x9/Spain_Circuit.png</t>
+  </si>
+  <si>
+    <t>https://jacos-paddock.com/wp-content/uploads/2019/12/Hockenheimring-Map.png</t>
+  </si>
+  <si>
+    <t>https://media.formula1.com/image/upload/content/dam/fom-website/2018-redesign-assets/Circuit%20maps%2016x9/Hungary_Circuit.png</t>
+  </si>
+  <si>
+    <t>https://media.formula1.com/image/upload/content/dam/fom-website/2018-redesign-assets/Circuit%20maps%2016x9/Emilia_Romagna_Circuit.png.transform/9col/image.png</t>
+  </si>
+  <si>
+    <t>https://media.formula1.com/image/upload/content/dam/fom-website/2018-redesign-assets/Circuit%20maps%2016x9/Brazil_Circuit.png.transform/9col/image.png</t>
+  </si>
+  <si>
+    <t>https://media.formula1.com/image/upload/content/dam/fom-website/2018-redesign-assets/Circuit%20maps%2016x9/Turkey_Circuit.png.transform/9col/image.png</t>
+  </si>
+  <si>
+    <t>https://media.formula1.com/image/upload/content/dam/fom-website/2018-redesign-assets/Circuit%20maps%2016x9/Saudi_Arabia_Circuit.png.transform/9col/image.png</t>
+  </si>
+  <si>
+    <t>https://media.formula1.com/image/upload/content/dam/fom-website/2018-redesign-assets/Circuit%20maps%2016x9/Qatar_Circuit.png.transform/9col/image.png</t>
+  </si>
+  <si>
+    <t>https://media.formula1.com/image/upload/content/dam/fom-website/2018-redesign-assets/Circuit%20maps%2016x9/Singapore_Circuit.png</t>
+  </si>
+  <si>
+    <t>https://media.formula1.com/image/upload/content/dam/fom-website/2018-redesign-assets/Circuit%20maps%2016x9/Miami_Circuit.png.transform/9col/image.png</t>
+  </si>
+  <si>
+    <t>https://media.formula1.com/image/upload/content/dam/fom-website/2018-redesign-assets/Circuit%20maps%2016x9/Monoco_Circuit.png.transform/9col/image.png</t>
+  </si>
+  <si>
+    <t>https://media.formula1.com/image/upload/content/dam/fom-website/2018-redesign-assets/Circuit%20maps%2016x9/Italy_Circuit.png</t>
+  </si>
+  <si>
+    <t>https://media.formula1.com/image/upload/content/dam/fom-website/2018-redesign-assets/Circuit%20maps%2016x9/Tuscany_Circuit.png.transform/9col/image.png</t>
+  </si>
+  <si>
+    <t>https://media.formula1.com/image/upload/content/dam/fom-website/2018-redesign-assets/Circuit%20maps%2016x9/Germany_Circuit.png.transform/9col/image.png</t>
+  </si>
+  <si>
+    <t>https://media.formula1.com/image/upload/content/dam/fom-website/2018-redesign-assets/Circuit%20maps%2016x9/Portugal_Circuit.png.transform/9col/image.png</t>
+  </si>
+  <si>
+    <t>https://media.formula1.com/image/upload/content/dam/fom-website/2018-redesign-assets/Circuit%20maps%2016x9/Austria_Circuit.png</t>
+  </si>
+  <si>
+    <t>https://media.formula1.com/image/upload/content/dam/fom-website/2018-redesign-assets/Circuit%20maps%2016x9/France_Circuit.png</t>
+  </si>
+  <si>
+    <t>https://media.formula1.com/image/upload/content/dam/fom-website/2018-redesign-assets/Circuit%20maps%2016x9/Mexico_Circuit.png</t>
+  </si>
+  <si>
+    <t>https://www.f1-fansite.com/wp-content/uploads/2012/06/Malaysian-Circuit.jpg</t>
+  </si>
+  <si>
+    <t>https://media.formula1.com/image/upload/content/dam/fom-website/2018-redesign-assets/Circuit%20maps%2016x9/China_Circuit.png</t>
+  </si>
+  <si>
+    <t>https://media.formula1.com/image/upload/content/dam/fom-website/2018-redesign-assets/Circuit%20maps%2016x9/Great_Britain_Circuit.png.transform/9col/image.png</t>
+  </si>
+  <si>
+    <t>https://media.formula1.com/image/upload/content/dam/fom-website/2018-redesign-assets/Circuit%20maps%2016x9/Russia_Circuit.png</t>
+  </si>
+  <si>
+    <t>https://media.formula1.com/image/upload/content/dam/fom-website/2018-redesign-assets/Circuit%20maps%2016x9/Belgium_Circuit.png.transform/9col/image.png</t>
+  </si>
+  <si>
+    <t>https://media.formula1.com/image/upload/content/dam/fom-website/2018-redesign-assets/Circuit%20maps%2016x9/Japan_Circuit.png.transform/9col/image.png</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/f1wikia/images/8/88/Circuit_Valencia_street.png/revision/latest?cb=20120419040009</t>
+  </si>
+  <si>
+    <t>https://media.formula1.com/image/upload/content/dam/fom-website/2018-redesign-assets/Circuit%20maps%2016x9/Canada_Circuit.png</t>
+  </si>
+  <si>
+    <t>https://media.formula1.com/image/upload/content/dam/fom-website/2018-redesign-assets/Circuit%20maps%2016x9/Abu_Dhabi_Circuit.png</t>
+  </si>
+  <si>
+    <t>https://www.f1-fansite.com/wp-content/uploads/2012/07/Yoengam-Circuit.jpg</t>
+  </si>
+  <si>
+    <t>https://media.formula1.com/image/upload/content/dam/fom-website/2018-redesign-assets/Circuit%20maps%2016x9/Netherlands_Circuit.png.transform/9col/image.png</t>
   </si>
 </sst>
 </file>
@@ -599,290 +599,290 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B546AF-7CED-4BD7-98BE-861400730EEC}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
